--- a/Proyecto/CalificacionesPolymer2019.xlsx
+++ b/Proyecto/CalificacionesPolymer2019.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPolymerStk2019\Labs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPolymerStk2019\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="740" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Calif" sheetId="8" r:id="rId1"/>
@@ -22,8 +22,9 @@
     <sheet name="Reloj" sheetId="7" r:id="rId8"/>
     <sheet name="calculateIS" sheetId="9" r:id="rId9"/>
     <sheet name="Guess" sheetId="11" r:id="rId10"/>
-    <sheet name="GoogleMaps" sheetId="12" r:id="rId11"/>
-    <sheet name="Proyecto Final" sheetId="10" r:id="rId12"/>
+    <sheet name="CP" sheetId="13" r:id="rId11"/>
+    <sheet name="GoogleMaps" sheetId="12" r:id="rId12"/>
+    <sheet name="Proyecto Final" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="161">
   <si>
     <t>Conversion de Moneda</t>
   </si>
@@ -700,6 +701,33 @@
   </si>
   <si>
     <t>Promedio Final</t>
+  </si>
+  <si>
+    <t>Ejercicio de Codigo Postal</t>
+  </si>
+  <si>
+    <t>Colonia</t>
+  </si>
+  <si>
+    <t>Codigo Postal</t>
+  </si>
+  <si>
+    <t>Busqueda de Codigos Postales</t>
+  </si>
+  <si>
+    <t>Buscar</t>
+  </si>
+  <si>
+    <t>Resultados</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>Narvarte</t>
   </si>
 </sst>
 </file>
@@ -838,7 +866,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -926,6 +954,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,7 +1122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1223,6 +1257,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2725,11 +2760,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W7" sqref="W7"/>
+      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3498,6 +3533,220 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="9">
+        <v>4500</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="86" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3522,7 +3771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:L3"/>
   <sheetViews>
@@ -4384,7 +4633,7 @@
   <dimension ref="B1:AA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C3" sqref="C3:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Proyecto/CalificacionesPolymer2019.xlsx
+++ b/Proyecto/CalificacionesPolymer2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="740" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="740" firstSheet="4" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Calif" sheetId="8" r:id="rId1"/>
@@ -22,9 +22,11 @@
     <sheet name="Reloj" sheetId="7" r:id="rId8"/>
     <sheet name="calculateIS" sheetId="9" r:id="rId9"/>
     <sheet name="Guess" sheetId="11" r:id="rId10"/>
-    <sheet name="CP" sheetId="13" r:id="rId11"/>
-    <sheet name="GoogleMaps" sheetId="12" r:id="rId12"/>
-    <sheet name="Proyecto Final" sheetId="10" r:id="rId13"/>
+    <sheet name="GoogleMaps" sheetId="12" r:id="rId11"/>
+    <sheet name="Proyecto Final" sheetId="10" r:id="rId12"/>
+    <sheet name="CP" sheetId="13" r:id="rId13"/>
+    <sheet name="Tareas" sheetId="14" r:id="rId14"/>
+    <sheet name="Scrum Board" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="186">
   <si>
     <t>Conversion de Moneda</t>
   </si>
@@ -715,9 +717,6 @@
     <t>Busqueda de Codigos Postales</t>
   </si>
   <si>
-    <t>Buscar</t>
-  </si>
-  <si>
     <t>Resultados</t>
   </si>
   <si>
@@ -727,14 +726,105 @@
     <t>Municipio</t>
   </si>
   <si>
-    <t>Narvarte</t>
+    <t>Narv</t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>Narvarte Oriente</t>
+  </si>
+  <si>
+    <t>Narvarte Poniente</t>
+  </si>
+  <si>
+    <t>CdMX</t>
+  </si>
+  <si>
+    <t>Benito uarez</t>
+  </si>
+  <si>
+    <t>Benito Juarez</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>Sprints</t>
+  </si>
+  <si>
+    <t>Fibbonacci:</t>
+  </si>
+  <si>
+    <t>1,2,3,5,8,13,21,34,55, 89</t>
+  </si>
+  <si>
+    <t>Descomposicion</t>
+  </si>
+  <si>
+    <t>Backlog</t>
+  </si>
+  <si>
+    <t>Todo</t>
+  </si>
+  <si>
+    <t>Doing</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Proyecto: App para consulta de Codigos Postales</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Team: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PEJEJITOS</t>
+    </r>
+  </si>
+  <si>
+    <t>minutos</t>
+  </si>
+  <si>
+    <t>Peso en minutos (No siempre es asi)</t>
+  </si>
+  <si>
+    <t>Revision de Prototipo al final del Sprint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -865,8 +955,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -960,6 +1079,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,7 +1253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1258,6 +1389,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1455,6 +1593,538 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657228</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1724026</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1114425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Folded Corner 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1266828" y="5105402"/>
+          <a:ext cx="1771648" cy="990598"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Pejejitos</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1000"/>
+            <a:t>                34</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1000"/>
+            <a:t>Crear back end para consulta de Codigos Postales - CONSTRUCCION</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>485777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2638425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Folded Corner 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381250" y="5467352"/>
+          <a:ext cx="1571625" cy="1133474"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Pejejitos</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>                 21</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Crear back end para consulta de Codigos </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1050"/>
+            <a:t>Postale</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t> - TEST</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1371600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Folded Corner 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447801" y="857250"/>
+          <a:ext cx="1981199" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Pejejitos</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>                21</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Crear back end </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1050"/>
+            <a:t>para</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t> consulta de Codigos Postales - ANALISISDISEÑO</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Responsable: JLIL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1209677</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1876425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Folded Corner 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524127" y="1133475"/>
+          <a:ext cx="1495424" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Pejejitos</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1050"/>
+            <a:t>              13</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1050"/>
+            <a:t>Crear back end para </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1000"/>
+            <a:t>consulta</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1050"/>
+            <a:t> de Codigos Postales - PROTOTIPO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1152527</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1238250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Folded Corner 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2466977" y="2943226"/>
+          <a:ext cx="1609724" cy="1076324"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Avengers</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1050"/>
+            <a:t>              13</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1050"/>
+            <a:t>Revision de PROTOTIPO Para VoBo</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>885825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Folded Corner 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381126" y="2781300"/>
+          <a:ext cx="1390649" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Avengers</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1050"/>
+            <a:t>13</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1050"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1050"/>
+            <a:t>VoBo de PROTOTIPO </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2495,6 +3165,736 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7581900" y="2247900"/>
+          <a:ext cx="1562100" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>3a capa:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Sistema</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t> Java</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>Node JS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
+            <a:t>Firebase</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Right Arrow 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572250" y="809624"/>
+          <a:ext cx="2105025" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Prototipo</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Right Arrow 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="956128">
+          <a:off x="5962650" y="2286000"/>
+          <a:ext cx="1495425" cy="400049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Funcionalidad Final</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>423864</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Right Arrow 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18403401">
+          <a:off x="8667751" y="1885950"/>
+          <a:ext cx="1495425" cy="400049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Funcionalidad Final</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Folded Corner 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8877300" y="447675"/>
+          <a:ext cx="1381125" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Archivo JSON</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Folded Corner 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828676" y="1095376"/>
+          <a:ext cx="2095500" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1200"/>
+            <a:t>4Transformacion               89</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1200"/>
+            <a:t>Crear back end para consulta de Codigos Postale</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Folded Corner 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971925" y="180975"/>
+          <a:ext cx="2447925" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1200"/>
+            <a:t>4Transformacion                34</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1200"/>
+            <a:t>Crear back end para consulta de Codigos Postales - CONSTRUCCION</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Folded Corner 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4010025" y="1609726"/>
+          <a:ext cx="2143125" cy="1304924"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1200"/>
+            <a:t>4Transformacion                 21</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1200"/>
+            <a:t>Crear back end para consulta de Codigos Postale - TEST</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Folded Corner 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019550" y="3048000"/>
+          <a:ext cx="2390775" cy="1476375"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1200"/>
+            <a:t>4Transformacion                21</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1200"/>
+            <a:t>Crear back end para consulta de Codigos Postales - ANALISISDISEÑO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Folded Corner 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="1752601"/>
+          <a:ext cx="2143125" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1200"/>
+            <a:t>4Transformacion              13</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1200"/>
+            <a:t>Crear back end para consulta de Codigos Postales - PROTOTIPO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Right Arrow 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="2095500"/>
+          <a:ext cx="666750" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3533,220 +4933,6 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="3.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="9">
-        <v>4500</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
-      <c r="C11" s="86" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="86" t="s">
-        <v>159</v>
-      </c>
-      <c r="F11" s="86" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3771,7 +4957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:L3"/>
   <sheetViews>
@@ -3820,6 +5006,367 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="68" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="9">
+        <v>4500</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="86" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
+      <c r="C13" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="J19" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="K19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>120</v>
+      </c>
+      <c r="L20">
+        <v>120</v>
+      </c>
+      <c r="M20">
+        <v>120</v>
+      </c>
+      <c r="N20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J21" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
+      </c>
+      <c r="N21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="6" max="6" width="43.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C1" s="88" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C2" s="88" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C3" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="89" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="89" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="90" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+    </row>
+    <row r="5" spans="2:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="90" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+    </row>
+    <row r="6" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="90" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+    </row>
+    <row r="7" spans="2:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Proyecto/CalificacionesPolymer2019.xlsx
+++ b/Proyecto/CalificacionesPolymer2019.xlsx
@@ -9,24 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="740" firstSheet="4" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Calif" sheetId="8" r:id="rId1"/>
-    <sheet name="Conv" sheetId="1" r:id="rId2"/>
-    <sheet name="Cifrado" sheetId="2" r:id="rId3"/>
-    <sheet name="Parsing" sheetId="3" r:id="rId4"/>
-    <sheet name="Agenda" sheetId="4" r:id="rId5"/>
-    <sheet name="Flexbox" sheetId="5" r:id="rId6"/>
-    <sheet name="Adivina" sheetId="6" r:id="rId7"/>
-    <sheet name="Reloj" sheetId="7" r:id="rId8"/>
-    <sheet name="calculateIS" sheetId="9" r:id="rId9"/>
-    <sheet name="Guess" sheetId="11" r:id="rId10"/>
-    <sheet name="GoogleMaps" sheetId="12" r:id="rId11"/>
-    <sheet name="Proyecto Final" sheetId="10" r:id="rId12"/>
-    <sheet name="CP" sheetId="13" r:id="rId13"/>
-    <sheet name="Tareas" sheetId="14" r:id="rId14"/>
-    <sheet name="Scrum Board" sheetId="15" r:id="rId15"/>
+    <sheet name="Visa" sheetId="16" r:id="rId2"/>
+    <sheet name="Conv" sheetId="1" r:id="rId3"/>
+    <sheet name="Cifrado" sheetId="2" r:id="rId4"/>
+    <sheet name="Parsing" sheetId="3" r:id="rId5"/>
+    <sheet name="Agenda" sheetId="4" r:id="rId6"/>
+    <sheet name="Flexbox" sheetId="5" r:id="rId7"/>
+    <sheet name="Adivina" sheetId="6" r:id="rId8"/>
+    <sheet name="Reloj" sheetId="7" r:id="rId9"/>
+    <sheet name="calculateIS" sheetId="9" r:id="rId10"/>
+    <sheet name="Guess" sheetId="11" r:id="rId11"/>
+    <sheet name="GoogleMaps" sheetId="12" r:id="rId12"/>
+    <sheet name="Proyecto Final" sheetId="10" r:id="rId13"/>
+    <sheet name="CP" sheetId="13" r:id="rId14"/>
+    <sheet name="Tareas" sheetId="14" r:id="rId15"/>
+    <sheet name="Scrum Board" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="194">
   <si>
     <t>Conversion de Moneda</t>
   </si>
@@ -818,6 +819,30 @@
   </si>
   <si>
     <t>Revision de Prototipo al final del Sprint</t>
+  </si>
+  <si>
+    <t>Viajar</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Pasaporte</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Visa USA</t>
+  </si>
+  <si>
+    <t>Nombre, correo</t>
+  </si>
+  <si>
+    <t>Asignado</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1396,6 +1421,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4164,7 +4190,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4912,6 +4938,150 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="67"/>
+      <c r="C1" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="64"/>
+      <c r="C4" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="64"/>
+      <c r="F4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="64"/>
+      <c r="C5" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="64"/>
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="64"/>
+      <c r="C6" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="64"/>
+      <c r="F6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="64"/>
+      <c r="C7" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="72"/>
+      <c r="C9" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="72"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="65" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -4931,7 +5101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B3"/>
   <sheetViews>
@@ -4957,7 +5127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:L3"/>
   <sheetViews>
@@ -5009,7 +5179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N22"/>
   <sheetViews>
@@ -5264,7 +5434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
@@ -5285,11 +5455,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -5371,6 +5541,191 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="56.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="92" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="92" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="92" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="92" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="77"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" s="77"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="77"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="77"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="77"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="77"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="77"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="77"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" display="mailto:luis.alducin@softtek.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="mailto:cesar.ortega@softtek.com"/>
+    <hyperlink ref="B6" r:id="rId3" display="mailto:fgonzalez@softtek.com"/>
+    <hyperlink ref="B4" r:id="rId4" display="mailto:david.manrique@softtek.com"/>
+    <hyperlink ref="B5" r:id="rId5" display="mailto:davida.rivera@softtek.com"/>
+    <hyperlink ref="B9" r:id="rId6" display="mailto:luis.riverap@softtek.com"/>
+    <hyperlink ref="B2" r:id="rId7" display="mailto:abdiel.cruz@softtek.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J17"/>
   <sheetViews>
@@ -5550,7 +5905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:K16"/>
   <sheetViews>
@@ -5703,7 +6058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I16"/>
   <sheetViews>
@@ -5855,7 +6210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K19"/>
   <sheetViews>
@@ -6175,7 +6530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA22"/>
   <sheetViews>
@@ -6874,7 +7229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L19"/>
   <sheetViews>
@@ -7111,7 +7466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:E8"/>
   <sheetViews>
@@ -7161,148 +7516,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="3.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="67"/>
-      <c r="C1" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="64"/>
-      <c r="C4" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="64"/>
-      <c r="F4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="64"/>
-      <c r="C5" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="64"/>
-      <c r="F5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="64"/>
-      <c r="C6" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="69" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="64"/>
-      <c r="F6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="64"/>
-      <c r="C7" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="68" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="72"/>
-      <c r="C9" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="72"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="65" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="65" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
 </file>